--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,24 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,82 +85,88 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +535,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +617,13 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -637,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.815068493150685</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C4">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D4">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -687,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
@@ -737,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5193798449612403</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.501937984496124</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4765100671140939</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.76875</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.36</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2341269841269841</v>
+        <v>0.25</v>
       </c>
       <c r="C14">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1394101876675603</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1205,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1229,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,37 +1243,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008056719303899453</v>
+        <v>0.01095360824742268</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F16">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3078</v>
+        <v>3070</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1279,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1287,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1313,13 +1319,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1331,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1339,13 +1345,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.6825396825396826</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1365,13 +1371,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1391,13 +1397,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6352941176470588</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L21">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M21">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1417,13 +1423,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1443,13 +1449,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1461,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1469,13 +1475,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5952380952380952</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="L24">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M24">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N24">
         <v>0.99</v>
@@ -1487,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1521,13 +1527,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5606694560669456</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L26">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1539,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1547,13 +1553,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5285714285714286</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1573,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.4943820224719101</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1591,7 +1597,59 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L29">
+        <v>41</v>
+      </c>
+      <c r="M29">
+        <v>41</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
